--- a/medicine/Pharmacie/1848_en_santé_et_médecine/1848_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1848_en_santé_et_médecine/1848_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1848_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1848_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1848_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1848_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,26 +518,28 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Europe
-Janvier-septembre : début d'une épidémie de variole à Montbrison, qui fait cinquante-quatre morts[1].
-28 février : en France, le docteur Ange Guépin est nommé commissaire du gouvernement provisoire pour le département de Loire-Inférieure par Ledru-Rollin, ministre de l'Intérieur[2].
-6 mars : les membres de la Société médico-psychologique organisent une discussion sur « l’influence des commotions politiques et sociales sur le développement des maladies mentales[3]. »
-8 avril : Gaetano Donizetti meurt à 50 ans, atteint d'une paralysie générale et de troubles mentaux, à la suite d'une neurosyphilis[4].
-24 mai :  inauguration, en France, du premier asile pour les enfants indésirés, handicapés, orphelins, pauvres, La Famille, que John Bost fait construire[5].
-Octobre : une épidémie de choléra débute à Dunkerque[6].
-Novembre : le choléra touche Londres et l’Écosse[7].
-18 décembre : en France, un décret réorganise et généralise le système des conseils de salubrité locaux qui ont notamment pour mission l'installation et l'entretien des égouts et l'alimentation en eau potable[8].
-En Suisse, construction de l'hôpital de La Chaux-de-Fonds[9].
-En Suède, le terme « alcoolisme » est employé pour la première fois par le médecin Magnus Huss dans « une description clinique et nosographique de l'intoxication éthylique[10]. »
-En Grande-Bretagne, sous la pression d'Edwin Chadwick, le gouvernement libéral de John Russell vote le Public Health Act 1848 (en) qui vise à améliorer l'hygiène dans les villes d'Angleterre et du Pays de Galles en développant les réserves d'eau, le système d'égouts, le  drainage, le nettoiement, le dallage et la réglementation sanitaire[11].
-L'Anglais Alfred Garrod (en) découvre que l'accès d'acide urique dans le sang provoque la goutte[12].
+Janvier-septembre : début d'une épidémie de variole à Montbrison, qui fait cinquante-quatre morts.
+28 février : en France, le docteur Ange Guépin est nommé commissaire du gouvernement provisoire pour le département de Loire-Inférieure par Ledru-Rollin, ministre de l'Intérieur.
+6 mars : les membres de la Société médico-psychologique organisent une discussion sur « l’influence des commotions politiques et sociales sur le développement des maladies mentales. »
+8 avril : Gaetano Donizetti meurt à 50 ans, atteint d'une paralysie générale et de troubles mentaux, à la suite d'une neurosyphilis.
+24 mai :  inauguration, en France, du premier asile pour les enfants indésirés, handicapés, orphelins, pauvres, La Famille, que John Bost fait construire.
+Octobre : une épidémie de choléra débute à Dunkerque.
+Novembre : le choléra touche Londres et l’Écosse.
+18 décembre : en France, un décret réorganise et généralise le système des conseils de salubrité locaux qui ont notamment pour mission l'installation et l'entretien des égouts et l'alimentation en eau potable.
+En Suisse, construction de l'hôpital de La Chaux-de-Fonds.
+En Suède, le terme « alcoolisme » est employé pour la première fois par le médecin Magnus Huss dans « une description clinique et nosographique de l'intoxication éthylique. »
+En Grande-Bretagne, sous la pression d'Edwin Chadwick, le gouvernement libéral de John Russell vote le Public Health Act 1848 (en) qui vise à améliorer l'hygiène dans les villes d'Angleterre et du Pays de Galles en développant les réserves d'eau, le système d'égouts, le  drainage, le nettoiement, le dallage et la réglementation sanitaire.
+L'Anglais Alfred Garrod (en) découvre que l'accès d'acide urique dans le sang provoque la goutte.
 Amérique
 13 septembre : Phineas Gage, contremaître des chemins de fer américains, survit à un traumatisme crânien majeur malgré des dommages au lobe frontal gauche de son cerveau.
-1er novembre : la première école de médecine pour femme, le Boston Female Medical College (en) ouvre ses portes aux Êtats-Unis[13].
-Aux États-Unis, le gouverneur Nelson Dewey (en) intègre une école de médecine dans l'université du Wisconsin nouvellement créée[14].
-Aux États-Unis, le Congrès vote le Drug Importation Act (en) qui impose à l'inspection des services américains des douanes d'arrêter l'entrée de médicaments frelatés[15].</t>
+1er novembre : la première école de médecine pour femme, le Boston Female Medical College (en) ouvre ses portes aux Êtats-Unis.
+Aux États-Unis, le gouverneur Nelson Dewey (en) intègre une école de médecine dans l'université du Wisconsin nouvellement créée.
+Aux États-Unis, le Congrès vote le Drug Importation Act (en) qui impose à l'inspection des services américains des douanes d'arrêter l'entrée de médicaments frelatés.</t>
         </is>
       </c>
     </row>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1848_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1848_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,11 +567,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10 juillet : Rudolf Virchow fonde un hebdomadaire médical intitulé Die Medizinische Reform qui s’arrêtera en juin 1849[16].
-Virchow écrit un Rapport sur l'épidémie de typhus en Silésie supérieure qui préconise de répondre à de telles épidémies aussi bien par des mesures de santé publique que par des mesures sociales[17].
-Mathieu Orfila publie son Traité de médecine légale[18].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10 juillet : Rudolf Virchow fonde un hebdomadaire médical intitulé Die Medizinische Reform qui s’arrêtera en juin 1849.
+Virchow écrit un Rapport sur l'épidémie de typhus en Silésie supérieure qui préconise de répondre à de telles épidémies aussi bien par des mesures de santé publique que par des mesures sociales.
+Mathieu Orfila publie son Traité de médecine légale.</t>
         </is>
       </c>
     </row>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1848_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1848_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>7 janvier : Arrigo Tamassia (it) (mort en 1917), médecin italien.
 26 janvier : Pio Foà (it) (mort en 1923), médecin et homme politique italien.
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1848_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1848_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,13 +645,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2 janvier : Antoine Jourdan (né en 1788), chirurgien attaché à la garde impériale.
 24 janvier : Horace Wells (né en 1815), dentiste américain.
 23 mai : Louis Benoît Guersant (né en 1777), médecin et botaniste qui a donné son nom à la rue Guersant, dans le 17e arrondissement de Paris.
-24 mai : Antoine Chéreau (né en 1776), pharmacien français[19].
-28 juillet : Louis Berlioz (né en 1776), médecin français, père du compositeur Hector Berlioz et connu comme introducteur de l'acupuncture en France[20].
+24 mai : Antoine Chéreau (né en 1776), pharmacien français.
+28 juillet : Louis Berlioz (né en 1776), médecin français, père du compositeur Hector Berlioz et connu comme introducteur de l'acupuncture en France.
 7 août : Jöns Berzelius (né en 1779), médecin et chimiste suédois.
 19 octobre : Samuel Guthrie (en) (né en 1782), médecin américain.
 23 décembre : James Prichard (né en 1786), médecin et ethnologue anglais.</t>
